--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1830.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1830.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.702953224088327</v>
+        <v>0.3980987966060638</v>
       </c>
       <c r="B1">
-        <v>1.997871403134868</v>
+        <v>1.995837450027466</v>
       </c>
       <c r="C1">
-        <v>2.077567620297185</v>
+        <v>4.886344909667969</v>
       </c>
       <c r="D1">
-        <v>2.440164645717043</v>
+        <v>1.736964821815491</v>
       </c>
       <c r="E1">
-        <v>3.320379905635928</v>
+        <v>0.8746339678764343</v>
       </c>
     </row>
   </sheetData>
